--- a/biology/Botanique/Vacoa_parasol/Vacoa_parasol.xlsx
+++ b/biology/Botanique/Vacoa_parasol/Vacoa_parasol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pandanus heterocarpus
 Le vacoa parasol (Pandanus heterocarpus) est une plante arborescente, de la famille des Pandanacées, endémique de l'île Rodrigues, qui peut atteindre 3 à 4 mètres de hauteur et qui présente un port caractéristique en forme de parasol.
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vacoa parasol présente l'allure générale typique des Pandanus. C'est une espèce de petite taille (jusqu'à 3 ou 4 mètres de hauteur) de forme assez ramassée.
 La branchaison, verticillée, est sommaire. Les ramifications ont un diamètre sensiblement constant de 6 à 8 cm de diamètre, la tige centrale étant cependant environ deux fois plus grosse. Les racines-échasses restent cantonnées à la partie basale de la plante.
@@ -551,7 +565,9 @@
           <t>Vannerie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles sont récoltées vertes, raclées pour mettre à nu la fibre, puis lavées et séchées.
 Elles permettent la fabrication d'objets réputés pour leur solidité et leur résistance au déchirement. Elles servaient même, par tressage, à la fabrication de cordages, notamment les cordes bœuf avec lesquelles on attachait les bovins au piquet.
@@ -587,13 +603,15 @@
           <t>Sauvegarde des populations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Malgré une relative abondance, le maintien durable des vacoas parasols dans le paysage rodriguais n'est pas absolument garanti.
 Les fructifications sont régulières et généreuses, mais une grande partie des fruits sont ouverts par les rats qui consomment les graines. Le pâturage par les bovins ou par les chèvres contrarie la régénération naturelle du fait de l'abroutissement des jeunes germinations ou simplement à cause du piétinement. Dans les zones où la pression de pâturage est modérée, on observe cependant l'apparition de jeunes plants susceptibles d'assurer le renouvellement des générations, mais là où le pâturage est plus intensif, les vieux vacoas disparaissent peu à peu sans être remplacés.
 Par ailleurs, le regain d'activité de la vannerie, en particulier pour satisfaire le marché touristique, a nettement accru la pression de prélèvement des feuillages, parfois jusqu'au dépérissement des plantes.
 Sans une action volontaire de replantation, pour assurer une gestion durable de la ressource, les populations de vacoas parasols risquent donc de régresser.
-Depuis 2001, la Mauritian Wildlife Foundation a suscité et accompagné la création de pépinières villageoises pour que diverses espèces endémiques puissent ainsi être replantées dans la nature, les vacoas parasols étant numériquement les plus représentés[1]. Pour l'instant ces programmes ne concernent cependant que des parcelles délimitées et n'ont pas été entrepris à l'échelle générale du territoire.
+Depuis 2001, la Mauritian Wildlife Foundation a suscité et accompagné la création de pépinières villageoises pour que diverses espèces endémiques puissent ainsi être replantées dans la nature, les vacoas parasols étant numériquement les plus représentés. Pour l'instant ces programmes ne concernent cependant que des parcelles délimitées et n'ont pas été entrepris à l'échelle générale du territoire.
 </t>
         </is>
       </c>
@@ -622,7 +640,9 @@
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dans Le chercheur d'or, roman (1985) de J.M.G. Le Clézio, les vacoas parasols constituent une présence de fond de l'ambiance et du paysage de l'île Rodrigues :
 …J'ai complété la panoplie de l'explorateur avec un de ces grands chapeaux de fibre de vacoa que portent ici les manafs, les Noirs des montagnes.…
